--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.6133953397325991</v>
+        <v>0.7183209646907236</v>
       </c>
       <c r="D2">
-        <v>0.6900008964491646</v>
+        <v>0.7402249843600583</v>
       </c>
       <c r="E2">
-        <v>0.2343561337953477</v>
+        <v>0.3268422071057444</v>
       </c>
       <c r="F2">
-        <v>0.6055262183844161</v>
+        <v>0.6988980758204226</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6133953397325991</v>
+        <v>0.7183209646907236</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8698644028311444</v>
+        <v>0.8683246130014679</v>
       </c>
       <c r="E3">
-        <v>0.6200020597882214</v>
+        <v>0.6445270345066689</v>
       </c>
       <c r="F3">
-        <v>0.939955839798889</v>
+        <v>0.9405808542500633</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6900008964491646</v>
+        <v>0.7402249843600583</v>
       </c>
       <c r="C4">
-        <v>0.8698644028311444</v>
+        <v>0.8683246130014679</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.4377328716333124</v>
+        <v>0.3729973656811829</v>
       </c>
       <c r="F4">
-        <v>0.8945777383956566</v>
+        <v>0.8878648575023229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2343561337953477</v>
+        <v>0.3268422071057444</v>
       </c>
       <c r="C5">
-        <v>0.6200020597882214</v>
+        <v>0.6445270345066689</v>
       </c>
       <c r="D5">
-        <v>0.4377328716333124</v>
+        <v>0.3729973656811829</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5432271443827386</v>
+        <v>0.5252335178654639</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6055262183844161</v>
+        <v>0.6988980758204226</v>
       </c>
       <c r="C6">
-        <v>0.939955839798889</v>
+        <v>0.9405808542500633</v>
       </c>
       <c r="D6">
-        <v>0.8945777383956566</v>
+        <v>0.8878648575023229</v>
       </c>
       <c r="E6">
-        <v>0.5432271443827386</v>
+        <v>0.5252335178654639</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5055639649173765</v>
+        <v>0.3680775548080836</v>
       </c>
       <c r="D2">
-        <v>0.3990952383623267</v>
+        <v>0.3382076904650259</v>
       </c>
       <c r="E2">
-        <v>1.190712678012187</v>
+        <v>1.016054171212341</v>
       </c>
       <c r="F2">
-        <v>0.5168115912789134</v>
+        <v>0.3948578203938488</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.5055639649173765</v>
+        <v>-0.3680775548080836</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.1639185529032981</v>
+        <v>-0.1688568304035477</v>
       </c>
       <c r="E3">
-        <v>0.4961700119594162</v>
+        <v>0.4715291880476259</v>
       </c>
       <c r="F3">
-        <v>-0.07536491329934086</v>
+        <v>-0.07588945762004497</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3990952383623267</v>
+        <v>-0.3382076904650259</v>
       </c>
       <c r="C4">
-        <v>0.1639185529032981</v>
+        <v>0.1688568304035477</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7766767390701111</v>
+        <v>0.9203094369632598</v>
       </c>
       <c r="F4">
-        <v>0.1325844110065467</v>
+        <v>0.1435973663658751</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.190712678012187</v>
+        <v>-1.016054171212341</v>
       </c>
       <c r="C5">
-        <v>-0.4961700119594162</v>
+        <v>-0.4715291880476259</v>
       </c>
       <c r="D5">
-        <v>-0.7766767390701111</v>
+        <v>-0.9203094369632598</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.6083750189837452</v>
+        <v>-0.6515659294572387</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5168115912789134</v>
+        <v>-0.3948578203938488</v>
       </c>
       <c r="C6">
-        <v>0.07536491329934086</v>
+        <v>0.07588945762004497</v>
       </c>
       <c r="D6">
-        <v>-0.1325844110065467</v>
+        <v>-0.1435973663658751</v>
       </c>
       <c r="E6">
-        <v>0.6083750189837452</v>
+        <v>0.6515659294572387</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7183209646907236</v>
+        <v>0.2092353947469188</v>
       </c>
       <c r="D2">
-        <v>0.7402249843600583</v>
+        <v>0.284592059081094</v>
       </c>
       <c r="E2">
-        <v>0.3268422071057444</v>
+        <v>0.2138578968010125</v>
       </c>
       <c r="F2">
-        <v>0.6988980758204226</v>
+        <v>0.6672223560692212</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7183209646907236</v>
+        <v>0.2092353947469188</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8683246130014679</v>
+        <v>0.9240361178762759</v>
       </c>
       <c r="E3">
-        <v>0.6445270345066689</v>
+        <v>0.7033231185463458</v>
       </c>
       <c r="F3">
-        <v>0.9405808542500633</v>
+        <v>0.5170979972233414</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7402249843600583</v>
+        <v>0.284592059081094</v>
       </c>
       <c r="C4">
-        <v>0.8683246130014679</v>
+        <v>0.9240361178762759</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3729973656811829</v>
+        <v>0.7318804763331817</v>
       </c>
       <c r="F4">
-        <v>0.8878648575023229</v>
+        <v>0.5210524966603121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3268422071057444</v>
+        <v>0.2138578968010125</v>
       </c>
       <c r="C5">
-        <v>0.6445270345066689</v>
+        <v>0.7033231185463458</v>
       </c>
       <c r="D5">
-        <v>0.3729973656811829</v>
+        <v>0.7318804763331817</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5252335178654639</v>
+        <v>0.7066292459549737</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6988980758204226</v>
+        <v>0.6672223560692212</v>
       </c>
       <c r="C6">
-        <v>0.9405808542500633</v>
+        <v>0.5170979972233414</v>
       </c>
       <c r="D6">
-        <v>0.8878648575023229</v>
+        <v>0.5210524966603121</v>
       </c>
       <c r="E6">
-        <v>0.5252335178654639</v>
+        <v>0.7066292459549737</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3680775548080836</v>
+        <v>-1.293558389821643</v>
       </c>
       <c r="D2">
-        <v>0.3382076904650259</v>
+        <v>-1.096794486686145</v>
       </c>
       <c r="E2">
-        <v>1.016054171212341</v>
+        <v>-1.280059240995182</v>
       </c>
       <c r="F2">
-        <v>0.3948578203938488</v>
+        <v>-0.4358079950872858</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.3680775548080836</v>
+        <v>1.293558389821643</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.1688568304035477</v>
+        <v>-0.09645038613581289</v>
       </c>
       <c r="E3">
-        <v>0.4715291880476259</v>
+        <v>0.3858371777392114</v>
       </c>
       <c r="F3">
-        <v>-0.07588945762004497</v>
+        <v>0.6584234062200792</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3382076904650259</v>
+        <v>1.096794486686145</v>
       </c>
       <c r="C4">
-        <v>0.1688568304035477</v>
+        <v>0.09645038613581289</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9203094369632598</v>
+        <v>0.3470110814146307</v>
       </c>
       <c r="F4">
-        <v>0.1435973663658751</v>
+        <v>0.6521626108617797</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.016054171212341</v>
+        <v>1.280059240995182</v>
       </c>
       <c r="C5">
-        <v>-0.4715291880476259</v>
+        <v>-0.3858371777392114</v>
       </c>
       <c r="D5">
-        <v>-0.9203094369632598</v>
+        <v>-0.3470110814146307</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.6515659294572387</v>
+        <v>0.3813123387990836</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.3948578203938488</v>
+        <v>0.4358079950872858</v>
       </c>
       <c r="C6">
-        <v>0.07588945762004497</v>
+        <v>-0.6584234062200792</v>
       </c>
       <c r="D6">
-        <v>-0.1435973663658751</v>
+        <v>-0.6521626108617797</v>
       </c>
       <c r="E6">
-        <v>0.6515659294572387</v>
+        <v>-0.3813123387990836</v>
       </c>
       <c r="F6">
         <v>0</v>
